--- a/data/pca/factorExposure/factorExposure_2013-01-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007901493910346595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001805576501102593</v>
+      </c>
+      <c r="C2">
+        <v>-0.03197796759967081</v>
+      </c>
+      <c r="D2">
+        <v>0.005902921785011271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003179548180944433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006338092152093694</v>
+      </c>
+      <c r="C4">
+        <v>-0.08403231253107465</v>
+      </c>
+      <c r="D4">
+        <v>0.07891030266747547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002889352799192806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01422709290373291</v>
+      </c>
+      <c r="C6">
+        <v>-0.1130612177157112</v>
+      </c>
+      <c r="D6">
+        <v>0.03236504604650656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002129173281610588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005083141991034557</v>
+      </c>
+      <c r="C7">
+        <v>-0.0581274763051347</v>
+      </c>
+      <c r="D7">
+        <v>0.03150343386357303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008272612713341851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005757133294971632</v>
+      </c>
+      <c r="C8">
+        <v>-0.03791038735778406</v>
+      </c>
+      <c r="D8">
+        <v>0.04305429941409093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003396240629420864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00449332480011471</v>
+      </c>
+      <c r="C9">
+        <v>-0.07037957390504906</v>
+      </c>
+      <c r="D9">
+        <v>0.07060645241930076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002223771453819799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005395145780042355</v>
+      </c>
+      <c r="C10">
+        <v>-0.05799432410008465</v>
+      </c>
+      <c r="D10">
+        <v>-0.1991335726437333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002699903399797368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005827012533684976</v>
+      </c>
+      <c r="C11">
+        <v>-0.08060346115208895</v>
+      </c>
+      <c r="D11">
+        <v>0.05998031911355547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004477088068320165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004122873812930188</v>
+      </c>
+      <c r="C12">
+        <v>-0.06439879808576608</v>
+      </c>
+      <c r="D12">
+        <v>0.04720358412220782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002047864503128001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00887218066973337</v>
+      </c>
+      <c r="C13">
+        <v>-0.0673604470156175</v>
+      </c>
+      <c r="D13">
+        <v>0.06098177291690268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009686477911660637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001619891931137936</v>
+      </c>
+      <c r="C14">
+        <v>-0.04550060554084144</v>
+      </c>
+      <c r="D14">
+        <v>0.007455344617754934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006969694081878938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006060538618317555</v>
+      </c>
+      <c r="C15">
+        <v>-0.04211907994607107</v>
+      </c>
+      <c r="D15">
+        <v>0.02874578007586229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008863950360426812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005107076410734024</v>
+      </c>
+      <c r="C16">
+        <v>-0.06559207001412813</v>
+      </c>
+      <c r="D16">
+        <v>0.04673129704760896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>9.142972245671732e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008971721582819997</v>
+      </c>
+      <c r="C20">
+        <v>-0.06562765879971319</v>
+      </c>
+      <c r="D20">
+        <v>0.04155192270376559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005751957907274859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100086608950218</v>
+      </c>
+      <c r="C21">
+        <v>-0.02121676741122048</v>
+      </c>
+      <c r="D21">
+        <v>0.03934448450917823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01678321703700742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00665114875989475</v>
+      </c>
+      <c r="C22">
+        <v>-0.09417434735956431</v>
+      </c>
+      <c r="D22">
+        <v>0.1096575357766222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01708451432071858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006467603109363634</v>
+      </c>
+      <c r="C23">
+        <v>-0.09499410207392962</v>
+      </c>
+      <c r="D23">
+        <v>0.1096889448996178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001367339591344091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005522925046747821</v>
+      </c>
+      <c r="C24">
+        <v>-0.07675778761204906</v>
+      </c>
+      <c r="D24">
+        <v>0.06074799782747738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00389689134746151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003089708693316786</v>
+      </c>
+      <c r="C25">
+        <v>-0.07884876968419988</v>
+      </c>
+      <c r="D25">
+        <v>0.06605887041944757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004862771428843066</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003687585002469702</v>
+      </c>
+      <c r="C26">
+        <v>-0.04153956143929607</v>
+      </c>
+      <c r="D26">
+        <v>0.02052983200931608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005501545651567888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009029646555641963</v>
+      </c>
+      <c r="C28">
+        <v>-0.1070388558168531</v>
+      </c>
+      <c r="D28">
+        <v>-0.3170825246461723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001018867910560917</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00321624827700763</v>
+      </c>
+      <c r="C29">
+        <v>-0.04928603211104553</v>
+      </c>
+      <c r="D29">
+        <v>0.005393090754216559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003392063266688806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009624946335745692</v>
+      </c>
+      <c r="C30">
+        <v>-0.1426470811041303</v>
+      </c>
+      <c r="D30">
+        <v>0.09050741473899278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001142300955316242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006288715418896393</v>
+      </c>
+      <c r="C31">
+        <v>-0.04471429363462025</v>
+      </c>
+      <c r="D31">
+        <v>0.03096084118374148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006203405591746682</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004155576545883339</v>
+      </c>
+      <c r="C32">
+        <v>-0.04064742604076587</v>
+      </c>
+      <c r="D32">
+        <v>0.02077331499974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002686991696966551</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008402043468305314</v>
+      </c>
+      <c r="C33">
+        <v>-0.08545387500682271</v>
+      </c>
+      <c r="D33">
+        <v>0.06755125433788994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004312981170056297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003987285805860707</v>
+      </c>
+      <c r="C34">
+        <v>-0.05784241812380633</v>
+      </c>
+      <c r="D34">
+        <v>0.05340599822509777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001501974792259656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004974774689426752</v>
+      </c>
+      <c r="C35">
+        <v>-0.04029202312992388</v>
+      </c>
+      <c r="D35">
+        <v>0.01843103279063677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003685734779122558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001103139520382067</v>
+      </c>
+      <c r="C36">
+        <v>-0.02447587736808342</v>
+      </c>
+      <c r="D36">
+        <v>0.02120423647000208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002308822998473683</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009510735793569642</v>
+      </c>
+      <c r="C38">
+        <v>-0.03499418540297432</v>
+      </c>
+      <c r="D38">
+        <v>0.01473492261467369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0118929090776426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0004660720884032074</v>
+      </c>
+      <c r="C39">
+        <v>-0.116042045018825</v>
+      </c>
+      <c r="D39">
+        <v>0.07227568849709608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01006576365580288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002790770042928149</v>
+      </c>
+      <c r="C40">
+        <v>-0.09108406780165774</v>
+      </c>
+      <c r="D40">
+        <v>0.007797835970227044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.000127145980280045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007267754254085857</v>
+      </c>
+      <c r="C41">
+        <v>-0.03804169038481051</v>
+      </c>
+      <c r="D41">
+        <v>0.03409519803884491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002835666261844567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004107399172652854</v>
+      </c>
+      <c r="C43">
+        <v>-0.05367205091370073</v>
+      </c>
+      <c r="D43">
+        <v>0.02397839455103967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00420695234804911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003472798437415514</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091049289409723</v>
+      </c>
+      <c r="D44">
+        <v>0.06785096880391954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009756776069744901</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002250490795260417</v>
+      </c>
+      <c r="C46">
+        <v>-0.03370828143582448</v>
+      </c>
+      <c r="D46">
+        <v>0.03123354392947345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>3.963509314811026e-06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002721776827025199</v>
+      </c>
+      <c r="C47">
+        <v>-0.0371059611593033</v>
+      </c>
+      <c r="D47">
+        <v>0.02256332815244315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003639214046574901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006642718346134721</v>
+      </c>
+      <c r="C48">
+        <v>-0.03051881489352276</v>
+      </c>
+      <c r="D48">
+        <v>0.0313770537264139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0119694814039807</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01544603496078017</v>
+      </c>
+      <c r="C49">
+        <v>-0.1842751075245567</v>
+      </c>
+      <c r="D49">
+        <v>0.01149764644200965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00162301133967162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003667924488516052</v>
+      </c>
+      <c r="C50">
+        <v>-0.04341998081414782</v>
+      </c>
+      <c r="D50">
+        <v>0.03495092244560336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006806227754232679</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004481521290516662</v>
+      </c>
+      <c r="C51">
+        <v>-0.02659760636256493</v>
+      </c>
+      <c r="D51">
+        <v>0.02022135428963076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008572600974968431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02103348971225716</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691049880461273</v>
+      </c>
+      <c r="D53">
+        <v>0.03047327421368301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001214607347325839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00875216951110413</v>
+      </c>
+      <c r="C54">
+        <v>-0.05416238725876235</v>
+      </c>
+      <c r="D54">
+        <v>0.0455898900195682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003788100157243719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009601807137701628</v>
+      </c>
+      <c r="C55">
+        <v>-0.1080963700670841</v>
+      </c>
+      <c r="D55">
+        <v>0.04058153016004205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002811733214222526</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.020218898510721</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739127793907279</v>
+      </c>
+      <c r="D56">
+        <v>0.02986194049650133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007105065159536269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01978433357187447</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119065605823131</v>
+      </c>
+      <c r="D58">
+        <v>0.04834378365802405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006730588663090754</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009785196066938118</v>
+      </c>
+      <c r="C59">
+        <v>-0.1630718664945296</v>
+      </c>
+      <c r="D59">
+        <v>-0.3189931321310568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003892724696518891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02411226202713244</v>
+      </c>
+      <c r="C60">
+        <v>-0.2219072633738822</v>
+      </c>
+      <c r="D60">
+        <v>0.03534246773212948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01356948850305604</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001662219484210178</v>
+      </c>
+      <c r="C61">
+        <v>-0.09530959298084363</v>
+      </c>
+      <c r="D61">
+        <v>0.0569759493167073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637752798911034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449275176233443</v>
+      </c>
+      <c r="C62">
+        <v>-0.09166330733447964</v>
+      </c>
+      <c r="D62">
+        <v>0.04848588010542879</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.000802446752999538</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006335784191844391</v>
+      </c>
+      <c r="C63">
+        <v>-0.05516574772287233</v>
+      </c>
+      <c r="D63">
+        <v>0.02582922873911789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000523778148640695</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01542700752586054</v>
+      </c>
+      <c r="C64">
+        <v>-0.1055008195691879</v>
+      </c>
+      <c r="D64">
+        <v>0.05881087811202654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002869645520718255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01807419297304275</v>
+      </c>
+      <c r="C65">
+        <v>-0.1232548823824129</v>
+      </c>
+      <c r="D65">
+        <v>0.01772369972967196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00771336930254573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01323891004962091</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606069927431772</v>
+      </c>
+      <c r="D66">
+        <v>0.1115288650984381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003578641137838765</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01571165151085243</v>
+      </c>
+      <c r="C67">
+        <v>-0.06584201851879115</v>
+      </c>
+      <c r="D67">
+        <v>0.02637987644469793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006302789393760125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006414459520407707</v>
+      </c>
+      <c r="C68">
+        <v>-0.08665768412198477</v>
+      </c>
+      <c r="D68">
+        <v>-0.2581751170003923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002330914799734048</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006237735704899693</v>
+      </c>
+      <c r="C69">
+        <v>-0.05040763823622212</v>
+      </c>
+      <c r="D69">
+        <v>0.03895565368594948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003560106132716711</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001884453280337873</v>
+      </c>
+      <c r="C70">
+        <v>-0.00255216949897952</v>
+      </c>
+      <c r="D70">
+        <v>0.002058714291140923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002382497602288875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005878406798616957</v>
+      </c>
+      <c r="C71">
+        <v>-0.0961667328046539</v>
+      </c>
+      <c r="D71">
+        <v>-0.3087558708439558</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003848652400858698</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01621192549432788</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530226956924926</v>
+      </c>
+      <c r="D72">
+        <v>0.023223765354553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01147273868687992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03101882369041097</v>
+      </c>
+      <c r="C73">
+        <v>-0.2796574697518342</v>
+      </c>
+      <c r="D73">
+        <v>0.05249634175424592</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004649161567853724</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002113530937617819</v>
+      </c>
+      <c r="C74">
+        <v>-0.1051653680537474</v>
+      </c>
+      <c r="D74">
+        <v>0.03756658303115675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002552518244547359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0110494212486396</v>
+      </c>
+      <c r="C75">
+        <v>-0.1245668876955242</v>
+      </c>
+      <c r="D75">
+        <v>0.02441964032998696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009183206224523876</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02192517632249117</v>
+      </c>
+      <c r="C76">
+        <v>-0.1483342404681842</v>
+      </c>
+      <c r="D76">
+        <v>0.06248395980696119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001185397279031007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0237006013514931</v>
+      </c>
+      <c r="C77">
+        <v>-0.1238644209857525</v>
+      </c>
+      <c r="D77">
+        <v>0.08718518068546399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002029143028279226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01483688326741083</v>
+      </c>
+      <c r="C78">
+        <v>-0.09684173364884172</v>
+      </c>
+      <c r="D78">
+        <v>0.06870367343523308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02287922680752179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03783736469380639</v>
+      </c>
+      <c r="C79">
+        <v>-0.1559263047728031</v>
+      </c>
+      <c r="D79">
+        <v>0.0360135431849801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006500169358584001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01046075340566318</v>
+      </c>
+      <c r="C80">
+        <v>-0.04027593226138127</v>
+      </c>
+      <c r="D80">
+        <v>0.02813701143698729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00128049309221028</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01543155393522747</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269402856322145</v>
+      </c>
+      <c r="D81">
+        <v>0.04004446263503456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006065485442152486</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01995689868085272</v>
+      </c>
+      <c r="C82">
+        <v>-0.1409770457193321</v>
+      </c>
+      <c r="D82">
+        <v>0.04045375844521205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008488925198617261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01004664664972295</v>
+      </c>
+      <c r="C83">
+        <v>-0.05622729738417281</v>
+      </c>
+      <c r="D83">
+        <v>0.05521124988622714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01307336906569614</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01177715893701238</v>
+      </c>
+      <c r="C84">
+        <v>-0.03715723297148628</v>
+      </c>
+      <c r="D84">
+        <v>-0.01180334500794233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01422456951135215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0283087797740869</v>
+      </c>
+      <c r="C85">
+        <v>-0.1236562876023754</v>
+      </c>
+      <c r="D85">
+        <v>0.04423781125671443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00178187310100302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006127568412714775</v>
+      </c>
+      <c r="C86">
+        <v>-0.05142154739586</v>
+      </c>
+      <c r="D86">
+        <v>0.02159041121471792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004520766814052174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01030685295233983</v>
+      </c>
+      <c r="C87">
+        <v>-0.1296423080481147</v>
+      </c>
+      <c r="D87">
+        <v>0.07136670833392281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01173508918083946</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002830693729461219</v>
+      </c>
+      <c r="C88">
+        <v>-0.06582688331160561</v>
+      </c>
+      <c r="D88">
+        <v>0.01533526736285744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01382054574720336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001262558600152491</v>
+      </c>
+      <c r="C89">
+        <v>-0.1465390466851637</v>
+      </c>
+      <c r="D89">
+        <v>-0.3388252037531741</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002008091962313131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007087911312980237</v>
+      </c>
+      <c r="C90">
+        <v>-0.1210908165565797</v>
+      </c>
+      <c r="D90">
+        <v>-0.3198849269578814</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006593863296852997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01053211100251637</v>
+      </c>
+      <c r="C91">
+        <v>-0.1015289725766853</v>
+      </c>
+      <c r="D91">
+        <v>0.02060701296984447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007739377606183056</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001025060152530728</v>
+      </c>
+      <c r="C92">
+        <v>-0.1357551184297338</v>
+      </c>
+      <c r="D92">
+        <v>-0.3278302120548499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-7.430663180242765e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004938284639391131</v>
+      </c>
+      <c r="C93">
+        <v>-0.1050845364659392</v>
+      </c>
+      <c r="D93">
+        <v>-0.3042058860761797</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003410399035652598</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02265226720159401</v>
+      </c>
+      <c r="C94">
+        <v>-0.1464071339782103</v>
+      </c>
+      <c r="D94">
+        <v>0.05537380257113639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004395515040513215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.016631628049874</v>
+      </c>
+      <c r="C95">
+        <v>-0.1277611708516741</v>
+      </c>
+      <c r="D95">
+        <v>0.05590482942983797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0002553580771598523</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03644673128203643</v>
+      </c>
+      <c r="C97">
+        <v>-0.2142942411569762</v>
+      </c>
+      <c r="D97">
+        <v>-0.009042717918027703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002991457902470406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03675903502113347</v>
+      </c>
+      <c r="C98">
+        <v>-0.2487340229257058</v>
+      </c>
+      <c r="D98">
+        <v>0.04831180352316194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847637734230604</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9820876536812058</v>
+      </c>
+      <c r="C99">
+        <v>0.1171977423367597</v>
+      </c>
+      <c r="D99">
+        <v>-0.02808191898113227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009206735823419628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003253640936056767</v>
+      </c>
+      <c r="C101">
+        <v>-0.04946115725305845</v>
+      </c>
+      <c r="D101">
+        <v>0.005527371472539457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
